--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maneesha\Desktop\Concurrent\Pthreads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7576B610-02B2-4E3A-AA5B-823A9959C400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B718495-5AE0-4ACA-94D6-B61E2DE12CF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8088" yWindow="1848" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{37F1367F-408C-4D78-AD0D-2467B81C566E}"/>
+    <workbookView xWindow="348" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{37F1367F-408C-4D78-AD0D-2467B81C566E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -437,6 +437,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465645E2-6161-4B3D-9B87-2C61CB7A45CF}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1.5949999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.25E-3</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1.66E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.42E-3</v>
+      </c>
+      <c r="D8">
+        <v>2.6210000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="F8">
+        <v>3.159E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.65E-3</v>
+      </c>
+      <c r="H8">
+        <v>3.5319999999999997E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.0600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="C9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D9">
+        <v>1E-4</v>
+      </c>
+      <c r="E9">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F9">
+        <v>2.9E-4</v>
+      </c>
+      <c r="G9">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I9">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2.673E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2.7390000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>3.891E-2</v>
+      </c>
+      <c r="E19">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="F19">
+        <v>3.9640000000000002E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.47E-3</v>
+      </c>
+      <c r="H19">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="I19">
+        <v>3.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="C20">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D20">
+        <v>1E-4</v>
+      </c>
+      <c r="E20">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F20">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G20">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H20">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="I20">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2.9735000000000001E-2</v>
+      </c>
+      <c r="C28">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5.3510000000000002E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="D29">
+        <v>6.9330000000000003E-2</v>
+      </c>
+      <c r="E29">
+        <v>6.3699999999999998E-3</v>
+      </c>
+      <c r="F29">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="G29">
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>7.1809999999999999E-2</v>
+      </c>
+      <c r="I29">
+        <v>2.2799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="C30">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D30">
+        <v>1E-4</v>
+      </c>
+      <c r="E30">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F30">
+        <v>1.65E-4</v>
+      </c>
+      <c r="G30">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="H30">
+        <v>5.8E-4</v>
+      </c>
+      <c r="I30">
+        <v>6.9999999999999994E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BED285-0059-4BDA-AD27-6B98E92A5F3A}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -856,421 +1273,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465645E2-6161-4B3D-9B87-2C61CB7A45CF}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1.5212E-2</v>
-      </c>
-      <c r="C7">
-        <v>4.95E-4</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1.545E-2</v>
-      </c>
-      <c r="C8">
-        <v>4.4700000000000002E-4</v>
-      </c>
-      <c r="D8">
-        <v>2.5316000000000002E-2</v>
-      </c>
-      <c r="E8">
-        <v>5.5699999999999999E-4</v>
-      </c>
-      <c r="F8">
-        <v>0.124505</v>
-      </c>
-      <c r="G8">
-        <v>3.9560000000000003E-3</v>
-      </c>
-      <c r="H8">
-        <v>3.3298000000000001E-2</v>
-      </c>
-      <c r="I8">
-        <v>3.77E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="C9">
-        <v>3.4E-5</v>
-      </c>
-      <c r="D9">
-        <v>1.4799999999999999E-4</v>
-      </c>
-      <c r="E9">
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="F9">
-        <v>2.72E-4</v>
-      </c>
-      <c r="G9">
-        <v>6.7000000000000002E-5</v>
-      </c>
-      <c r="H9">
-        <v>7.1400000000000001E-4</v>
-      </c>
-      <c r="I9">
-        <v>1.22E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>3.2138E-2</v>
-      </c>
-      <c r="C18">
-        <v>9.859999999999999E-4</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>2.5798000000000001E-2</v>
-      </c>
-      <c r="C19">
-        <v>3.3300000000000002E-4</v>
-      </c>
-      <c r="D19">
-        <v>3.4604999999999997E-2</v>
-      </c>
-      <c r="E19">
-        <v>9.59E-4</v>
-      </c>
-      <c r="F19">
-        <v>3.9372999999999998E-2</v>
-      </c>
-      <c r="G19">
-        <v>1.224E-3</v>
-      </c>
-      <c r="H19">
-        <v>4.4304000000000003E-2</v>
-      </c>
-      <c r="I19">
-        <v>8.1599999999999999E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>1.46E-4</v>
-      </c>
-      <c r="C20">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="D20">
-        <v>1.63E-4</v>
-      </c>
-      <c r="E20">
-        <v>2.3E-5</v>
-      </c>
-      <c r="F20">
-        <v>2.81E-4</v>
-      </c>
-      <c r="G20">
-        <v>6.3E-5</v>
-      </c>
-      <c r="H20">
-        <v>6.1700000000000004E-4</v>
-      </c>
-      <c r="I20">
-        <v>7.6000000000000004E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>2.9735000000000001E-2</v>
-      </c>
-      <c r="C28">
-        <v>7.8700000000000005E-4</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>5.1417999999999998E-2</v>
-      </c>
-      <c r="C29">
-        <v>6.7599999999999995E-4</v>
-      </c>
-      <c r="D29">
-        <v>6.3457E-2</v>
-      </c>
-      <c r="E29">
-        <v>8.6899999999999998E-4</v>
-      </c>
-      <c r="F29">
-        <v>6.7725999999999995E-2</v>
-      </c>
-      <c r="G29">
-        <v>2.1970000000000002E-3</v>
-      </c>
-      <c r="H29">
-        <v>7.2709999999999997E-2</v>
-      </c>
-      <c r="I29">
-        <v>1.908E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="C30">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="D30">
-        <v>1.6699999999999999E-4</v>
-      </c>
-      <c r="E30">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="F30">
-        <v>2.23E-4</v>
-      </c>
-      <c r="G30">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="H30">
-        <v>6.69E-4</v>
-      </c>
-      <c r="I30">
-        <v>1.1900000000000001E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maneesha\Desktop\Concurrent\Pthreads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B718495-5AE0-4ACA-94D6-B61E2DE12CF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D3E787-5888-428B-9CAB-8D3ACB894F3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{37F1367F-408C-4D78-AD0D-2467B81C566E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{37F1367F-408C-4D78-AD0D-2467B81C566E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Maneesha" sheetId="2" r:id="rId1"/>
+    <sheet name="Peththa" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -440,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465645E2-6161-4B3D-9B87-2C61CB7A45CF}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BED285-0059-4BDA-AD27-6B98E92A5F3A}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maneesha\Desktop\Concurrent\Pthreads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D3E787-5888-428B-9CAB-8D3ACB894F3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8C8F88-DF10-4AD6-A8E9-9B67EDBA193D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{37F1367F-408C-4D78-AD0D-2467B81C566E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37F1367F-408C-4D78-AD0D-2467B81C566E}"/>
   </bookViews>
   <sheets>
     <sheet name="Maneesha" sheetId="2" r:id="rId1"/>
@@ -438,25 +438,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465645E2-6161-4B3D-9B87-2C61CB7A45CF}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>1</v>
@@ -478,8 +478,20 @@
       <c r="H5" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -505,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -521,8 +533,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -550,8 +565,20 @@
       <c r="I8">
         <v>2.0600000000000002E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>36</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -579,18 +606,30 @@
       <c r="I9">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>1</v>
@@ -613,7 +652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -639,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -655,8 +694,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -684,8 +726,20 @@
       <c r="I19">
         <v>3.2100000000000002E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -713,18 +767,30 @@
       <c r="I20">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>1</v>
@@ -747,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -773,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -789,8 +855,11 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -818,8 +887,20 @@
       <c r="I29">
         <v>2.2799999999999999E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>46</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -847,9 +928,22 @@
       <c r="I30">
         <v>6.9999999999999994E-5</v>
       </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <v>24</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -857,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BED285-0059-4BDA-AD27-6B98E92A5F3A}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
